--- a/biology/Médecine/Lavement/Lavement.xlsx
+++ b/biology/Médecine/Lavement/Lavement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lavement, acte médical :
 du côlon : synonyme courant de lavage de l'intestin.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot remplaça progressivement celui de clystère à partir de la seconde moitié du XVIIe siècle au cours duquel il fut progressivement détrôné par le suppositoire. Mot du vocabulaire religieux, il était employé en médecine pour les parties nobles du corps, comme la bouche, au siècle précédent. À la fin du siècle de Louis XIV, on trouve les deux sens (voir le Dictionnaire de l’Académie françoise, 1694, article Lavement).
 </t>
@@ -545,7 +559,9 @@
           <t>Ouvrages anciens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Regnier de Graaf, De Clysteribus (1668)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
